--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Fredy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Fredy\UNI\BA\git\k-means\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="15">
   <si>
     <t>100k</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>k=1000, iterations=100</t>
+  </si>
+  <si>
+    <t>77803 oder 560359</t>
   </si>
 </sst>
 </file>
@@ -510,7 +513,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,20 +715,38 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="C6" s="7">
+        <v>670</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2399</v>
+      </c>
+      <c r="E6" s="8">
+        <v>5267</v>
+      </c>
+      <c r="F6" s="8">
+        <v>17042</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
       <c r="K6" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="L6" s="7">
+        <v>4055</v>
+      </c>
+      <c r="M6" s="8">
+        <v>5342</v>
+      </c>
+      <c r="N6" s="8">
+        <v>8140</v>
+      </c>
+      <c r="O6" s="8">
+        <v>24919</v>
+      </c>
+      <c r="P6" s="8">
+        <v>4470653</v>
+      </c>
       <c r="Q6" s="9"/>
     </row>
     <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -903,18 +924,30 @@
         <v>8</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="D14" s="8">
+        <v>3626</v>
+      </c>
+      <c r="E14" s="8">
+        <v>18805</v>
+      </c>
+      <c r="F14" s="8">
+        <v>79045</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
       <c r="K14" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="7"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="M14" s="8">
+        <v>5473</v>
+      </c>
+      <c r="N14" s="8">
+        <v>20331</v>
+      </c>
+      <c r="O14" s="8">
+        <v>121743</v>
+      </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="9"/>
     </row>
@@ -979,7 +1012,9 @@
       <c r="E18" s="2">
         <v>119460</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2">
+        <v>1205257</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
       <c r="K18" t="s">
@@ -992,7 +1027,9 @@
       <c r="N18" s="2">
         <v>141245</v>
       </c>
-      <c r="O18" s="2"/>
+      <c r="O18" s="2">
+        <v>1869650</v>
+      </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
@@ -1007,7 +1044,9 @@
       <c r="E19" s="5">
         <v>397013</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="5">
+        <v>39733921</v>
+      </c>
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
       <c r="K19" t="s">
@@ -1020,7 +1059,9 @@
       <c r="N19" s="5">
         <v>611172</v>
       </c>
-      <c r="O19" s="10"/>
+      <c r="O19" s="10">
+        <v>6065560</v>
+      </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="6"/>
     </row>
@@ -1035,7 +1076,9 @@
       <c r="E20" s="5">
         <v>833704</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="5">
+        <v>9002374</v>
+      </c>
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
       <c r="K20" t="s">
@@ -1048,7 +1091,9 @@
       <c r="N20" s="5">
         <v>1916548</v>
       </c>
-      <c r="O20" s="10"/>
+      <c r="O20" s="10">
+        <v>21733406</v>
+      </c>
       <c r="P20" s="5"/>
       <c r="Q20" s="6"/>
     </row>
@@ -1063,7 +1108,9 @@
       <c r="E21" s="10">
         <v>2368</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="10">
+        <v>19501</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
       <c r="K21" t="s">
@@ -1076,7 +1123,9 @@
       <c r="N21" s="10">
         <v>64666</v>
       </c>
-      <c r="O21" s="10"/>
+      <c r="O21" s="10">
+        <v>39057</v>
+      </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="6"/>
     </row>
@@ -1085,18 +1134,30 @@
         <v>8</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="D22" s="8">
+        <v>89677</v>
+      </c>
+      <c r="E22" s="8">
+        <v>146682</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
       <c r="K22" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="7"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
+      <c r="M22" s="8">
+        <v>114926</v>
+      </c>
+      <c r="N22" s="8">
+        <v>187198</v>
+      </c>
+      <c r="O22" s="8">
+        <v>678770</v>
+      </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="9"/>
     </row>
